--- a/public/translate.xlsx
+++ b/public/translate.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">PARAGRAPH_1</t>
   </si>
   <si>
-    <t xml:space="preserve">en_GB_"AgroMax" - is trading company working at market of health food (wholesales segment).</t>
+    <t xml:space="preserve">en_"AgroMax" - is trading company working at market of health food (wholesales segment).</t>
   </si>
   <si>
     <t xml:space="preserve">en_GB_sorghum</t>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">PARAGRAPH_2</t>
   </si>
   <si>
-    <t xml:space="preserve">en_GB_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
+    <t xml:space="preserve">en_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
   </si>
   <si>
     <t xml:space="preserve">en_GB_beans</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">PARAGRAPH_3</t>
   </si>
   <si>
-    <t xml:space="preserve">en_GB_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
+    <t xml:space="preserve">en_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
   </si>
   <si>
     <t xml:space="preserve">en_GB_mustard</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">TITLE</t>
   </si>
   <si>
-    <t xml:space="preserve">en_GB_Hello friends, My name is Maksym Ratner, below is my story…</t>
+    <t xml:space="preserve">en_Hello friends, My name is Maksym Ratner, below is my story…</t>
   </si>
   <si>
     <t xml:space="preserve">en_GB_lupine</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">desc_en_GB_linen(grain)_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">en_GB_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
+    <t xml:space="preserve">en_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
   </si>
   <si>
     <t xml:space="preserve">en_GB_spelt</t>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">desc_en_GB_linen(grain)_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">en_GB_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
+    <t xml:space="preserve">en_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
   </si>
   <si>
     <t xml:space="preserve">en_GB_safflower</t>
@@ -190,7 +190,7 @@
     <t xml:space="preserve">desc_en_GB_red &amp; green lentils_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">en_GB_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
+    <t xml:space="preserve">en_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
   </si>
   <si>
     <t xml:space="preserve">en_GB_wheat common</t>
@@ -268,7 +268,7 @@
     <t xml:space="preserve">first_TITLE</t>
   </si>
   <si>
-    <t xml:space="preserve">en_GB_Our partnership program</t>
+    <t xml:space="preserve">en_Our partnership program</t>
   </si>
   <si>
     <t xml:space="preserve">en_GB_soybean</t>
@@ -280,7 +280,7 @@
     <t xml:space="preserve">desc_en_GB_spelt_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">en_GB_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
+    <t xml:space="preserve">en_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
   </si>
   <si>
     <t xml:space="preserve">en_GB_spelt_№_2</t>
@@ -289,7 +289,7 @@
     <t xml:space="preserve">desc_en_GB_spelt_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">en_GB_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
+    <t xml:space="preserve">en_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
   </si>
   <si>
     <t xml:space="preserve">en_GB_safflower_№_1</t>
@@ -301,7 +301,7 @@
     <t xml:space="preserve">second_TITLE</t>
   </si>
   <si>
-    <t xml:space="preserve">en_GB_Please contact about our partnership program:</t>
+    <t xml:space="preserve">en_Please contact about our partnership program:</t>
   </si>
   <si>
     <t xml:space="preserve">en_GB_safflower_№_2</t>
@@ -346,7 +346,7 @@
     <t xml:space="preserve">DESCRIPTION</t>
   </si>
   <si>
-    <t xml:space="preserve">en_GB_"AgroMax trades with products for health food industry and does the support to health..".</t>
+    <t xml:space="preserve">en_"AgroMax trades with products for health food industry and does the support to health..".</t>
   </si>
   <si>
     <t xml:space="preserve">en_GB_potato_№_2</t>
@@ -355,7 +355,7 @@
     <t xml:space="preserve">desc_en_GB_potato_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">en_GB_Lorem ipsum dolor sit amet123</t>
+    <t xml:space="preserve">en_Lorem ipsum dolor sit amet123</t>
   </si>
   <si>
     <t xml:space="preserve">en_GB_rapeseed_№_1</t>
@@ -364,7 +364,7 @@
     <t xml:space="preserve">desc_en_GB_rapeseed_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">en_GB_123Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
+    <t xml:space="preserve">en_123Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
   </si>
   <si>
     <t xml:space="preserve">en_GB_rapeseed_№_2</t>
@@ -373,7 +373,7 @@
     <t xml:space="preserve">desc_en_GB_rapeseed_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">en_GB_Lorem ipsum dolor sit amet</t>
+    <t xml:space="preserve">en_Lorem ipsum dolor sit amet</t>
   </si>
   <si>
     <t xml:space="preserve">en_GB_sunflower_№_1</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">desc_en_GB_sunflower_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">en_GB_Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
+    <t xml:space="preserve">en_Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
   </si>
   <si>
     <t xml:space="preserve">en_GB_sunflower_№_2</t>
@@ -424,7 +424,7 @@
     <t xml:space="preserve">desc_en_GB_soybean_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">en_GB_Please contact:</t>
+    <t xml:space="preserve">en_Please contact:</t>
   </si>
   <si>
     <t xml:space="preserve">en_GB_soybean_№_2</t>
@@ -433,37 +433,37 @@
     <t xml:space="preserve">desc_en_GB_soybean_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">en_GB_About membership in professional associations and business events:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_GB_About organizational issues and job:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_GB_About strategic partnership:</t>
+    <t xml:space="preserve">en_About membership in professional associations and business events:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_About organizational issues and job:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_About strategic partnership:</t>
   </si>
   <si>
     <t xml:space="preserve">HEADER_SITE_NAV_LIST_NAME</t>
   </si>
   <si>
-    <t xml:space="preserve">en_GB_products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_GB_company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_GB_founder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_GB_make exclusive order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_GB_partnership program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_GB_charity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en_GB_contacts</t>
+    <t xml:space="preserve">en_products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_founder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_make exclusive order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_partnership program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_charity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en_contacts</t>
   </si>
   <si>
     <t xml:space="preserve">de_DE_ancillary_name</t>
@@ -475,7 +475,7 @@
     <t xml:space="preserve">desc_de_DE_other</t>
   </si>
   <si>
-    <t xml:space="preserve">de_DE_"AgroMax" - is trading company working at market of health food (wholesales segment).</t>
+    <t xml:space="preserve">de_"AgroMax" - is trading company working at market of health food (wholesales segment).</t>
   </si>
   <si>
     <t xml:space="preserve">de_DE_sorghum</t>
@@ -487,7 +487,7 @@
     <t xml:space="preserve">desc_de_DE_sorghum_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">de_DE_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
+    <t xml:space="preserve">de_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
   </si>
   <si>
     <t xml:space="preserve">de_DE_beans</t>
@@ -499,7 +499,7 @@
     <t xml:space="preserve">desc_de_DE_sorghum_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">de_DE_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
+    <t xml:space="preserve">de_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
   </si>
   <si>
     <t xml:space="preserve">de_DE_mustard</t>
@@ -556,7 +556,7 @@
     <t xml:space="preserve">desc_de_DE_chickpea_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">de_DE_Hello friends, My name is Maksym Ratner, below is my story…</t>
+    <t xml:space="preserve">de_Hello friends, My name is Maksym Ratner, below is my story…</t>
   </si>
   <si>
     <t xml:space="preserve">de_DE_lupine</t>
@@ -568,7 +568,7 @@
     <t xml:space="preserve">desc_de_DE_linen(grain)_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">de_DE_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
+    <t xml:space="preserve">de_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
   </si>
   <si>
     <t xml:space="preserve">de_DE_spelt</t>
@@ -580,7 +580,7 @@
     <t xml:space="preserve">desc_de_DE_linen(grain)_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">de_DE_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
+    <t xml:space="preserve">de_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
   </si>
   <si>
     <t xml:space="preserve">de_DE_safflower</t>
@@ -592,7 +592,7 @@
     <t xml:space="preserve">desc_de_DE_red &amp; green lentils_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">de_DE_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
+    <t xml:space="preserve">de_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
   </si>
   <si>
     <t xml:space="preserve">de_DE_wheat common</t>
@@ -661,7 +661,7 @@
     <t xml:space="preserve">desc_de_DE_lupine_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">de_DE_Our partnership program</t>
+    <t xml:space="preserve">de_Our partnership program</t>
   </si>
   <si>
     <t xml:space="preserve">de_DE_soybean</t>
@@ -673,7 +673,7 @@
     <t xml:space="preserve">desc_de_DE_spelt_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">de_DE_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
+    <t xml:space="preserve">de_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
   </si>
   <si>
     <t xml:space="preserve">de_DE_spelt_№_2</t>
@@ -682,7 +682,7 @@
     <t xml:space="preserve">desc_de_DE_spelt_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">de_DE_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
+    <t xml:space="preserve">de_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
   </si>
   <si>
     <t xml:space="preserve">de_DE_safflower_№_1</t>
@@ -691,7 +691,7 @@
     <t xml:space="preserve">desc_de_DE_safflower_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">de_DE_Please contact about our partnership program:</t>
+    <t xml:space="preserve">de_Please contact about our partnership program:</t>
   </si>
   <si>
     <t xml:space="preserve">de_DE_safflower_№_2</t>
@@ -730,7 +730,7 @@
     <t xml:space="preserve">desc_de_DE_potato_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">de_DE_"AgroMax trades with products for health food industry and does the support to health..".</t>
+    <t xml:space="preserve">de_"AgroMax trades with products for health food industry and does the support to health..".</t>
   </si>
   <si>
     <t xml:space="preserve">de_DE_potato_№_2</t>
@@ -739,7 +739,7 @@
     <t xml:space="preserve">desc_de_DE_potato_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">de_DE_Lorem ipsum dolor sit amet123</t>
+    <t xml:space="preserve">de_Lorem ipsum dolor sit amet123</t>
   </si>
   <si>
     <t xml:space="preserve">de_DE_rapeseed_№_1</t>
@@ -748,7 +748,7 @@
     <t xml:space="preserve">desc_de_DE_rapeseed_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">de_DE_123Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
+    <t xml:space="preserve">de_123Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
   </si>
   <si>
     <t xml:space="preserve">de_DE_rapeseed_№_2</t>
@@ -757,7 +757,7 @@
     <t xml:space="preserve">desc_de_DE_rapeseed_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">de_DE_Lorem ipsum dolor sit amet</t>
+    <t xml:space="preserve">de_Lorem ipsum dolor sit amet</t>
   </si>
   <si>
     <t xml:space="preserve">de_DE_sunflower_№_1</t>
@@ -766,7 +766,7 @@
     <t xml:space="preserve">desc_de_DE_sunflower_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">de_DE_Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
+    <t xml:space="preserve">de_Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
   </si>
   <si>
     <t xml:space="preserve">de_DE_sunflower_№_2</t>
@@ -805,7 +805,7 @@
     <t xml:space="preserve">desc_de_DE_soybean_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">de_DE_Please contact:</t>
+    <t xml:space="preserve">de_Please contact:</t>
   </si>
   <si>
     <t xml:space="preserve">de_DE_soybean_№_2</t>
@@ -814,34 +814,34 @@
     <t xml:space="preserve">desc_de_DE_soybean_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">de_DE_About membership in professional associations and business events:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_DE_About organizational issues and job:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_DE_About strategic partnership:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_DE_products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_DE_company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_DE_founder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_DE_make exclusive order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_DE_partnership program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_DE_charity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de_DE_contacts</t>
+    <t xml:space="preserve">de_About membership in professional associations and business events:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de_About organizational issues and job:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de_About strategic partnership:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de_products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de_company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de_founder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de_make exclusive order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de_partnership program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de_charity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de_contacts</t>
   </si>
   <si>
     <t xml:space="preserve">tr_TR_ancillary_name</t>
@@ -853,7 +853,7 @@
     <t xml:space="preserve">desc_tr_TR_other</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_TR_"AgroMax" - is trading company working at market of health food (wholesales segment).</t>
+    <t xml:space="preserve">tr_"AgroMax" - is trading company working at market of health food (wholesales segment).</t>
   </si>
   <si>
     <t xml:space="preserve">tr_TR_sorghum</t>
@@ -865,7 +865,7 @@
     <t xml:space="preserve">desc_tr_TR_sorghum_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_TR_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
+    <t xml:space="preserve">tr_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
   </si>
   <si>
     <t xml:space="preserve">tr_TR_beans</t>
@@ -877,7 +877,7 @@
     <t xml:space="preserve">desc_tr_TR_sorghum_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_TR_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
+    <t xml:space="preserve">tr_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
   </si>
   <si>
     <t xml:space="preserve">tr_TR_mustard</t>
@@ -934,7 +934,7 @@
     <t xml:space="preserve">desc_tr_TR_chickpea_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_TR_Hello friends, My name is Maksym Ratner, below is my story…</t>
+    <t xml:space="preserve">tr_Hello friends, My name is Maksym Ratner, below is my story…</t>
   </si>
   <si>
     <t xml:space="preserve">tr_TR_lupine</t>
@@ -946,7 +946,7 @@
     <t xml:space="preserve">desc_tr_TR_linen(grain)_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_TR_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
+    <t xml:space="preserve">tr_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
   </si>
   <si>
     <t xml:space="preserve">tr_TR_spelt</t>
@@ -958,7 +958,7 @@
     <t xml:space="preserve">desc_tr_TR_linen(grain)_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_TR_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
+    <t xml:space="preserve">tr_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
   </si>
   <si>
     <t xml:space="preserve">tr_TR_safflower</t>
@@ -970,7 +970,7 @@
     <t xml:space="preserve">desc_tr_TR_red &amp; green lentils_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_TR_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
+    <t xml:space="preserve">tr_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
   </si>
   <si>
     <t xml:space="preserve">tr_TR_wheat common</t>
@@ -1039,7 +1039,7 @@
     <t xml:space="preserve">desc_tr_TR_lupine_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_TR_Our partnership program</t>
+    <t xml:space="preserve">tr_Our partnership program</t>
   </si>
   <si>
     <t xml:space="preserve">tr_TR_soybean</t>
@@ -1051,7 +1051,7 @@
     <t xml:space="preserve">desc_tr_TR_spelt_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_TR_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
+    <t xml:space="preserve">tr_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
   </si>
   <si>
     <t xml:space="preserve">tr_TR_spelt_№_2</t>
@@ -1060,7 +1060,7 @@
     <t xml:space="preserve">desc_tr_TR_spelt_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_TR_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
+    <t xml:space="preserve">tr_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
   </si>
   <si>
     <t xml:space="preserve">tr_TR_safflower_№_1</t>
@@ -1069,7 +1069,7 @@
     <t xml:space="preserve">desc_tr_TR_safflower_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_TR_Please contact about our partnership program:</t>
+    <t xml:space="preserve">tr_Please contact about our partnership program:</t>
   </si>
   <si>
     <t xml:space="preserve">tr_TR_safflower_№_2</t>
@@ -1108,7 +1108,7 @@
     <t xml:space="preserve">desc_tr_TR_potato_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_TR_"AgroMax trades with products for health food industry and does the support to health..".</t>
+    <t xml:space="preserve">tr_"AgroMax trades with products for health food industry and does the support to health..".</t>
   </si>
   <si>
     <t xml:space="preserve">tr_TR_potato_№_2</t>
@@ -1117,7 +1117,7 @@
     <t xml:space="preserve">desc_tr_TR_potato_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_TR_Lorem ipsum dolor sit amet123</t>
+    <t xml:space="preserve">tr_Lorem ipsum dolor sit amet123</t>
   </si>
   <si>
     <t xml:space="preserve">tr_TR_rapeseed_№_1</t>
@@ -1126,7 +1126,7 @@
     <t xml:space="preserve">desc_tr_TR_rapeseed_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_TR_123Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
+    <t xml:space="preserve">tr_123Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
   </si>
   <si>
     <t xml:space="preserve">tr_TR_rapeseed_№_2</t>
@@ -1135,7 +1135,7 @@
     <t xml:space="preserve">desc_tr_TR_rapeseed_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_TR_Lorem ipsum dolor sit amet</t>
+    <t xml:space="preserve">tr_Lorem ipsum dolor sit amet</t>
   </si>
   <si>
     <t xml:space="preserve">tr_TR_sunflower_№_1</t>
@@ -1144,7 +1144,7 @@
     <t xml:space="preserve">desc_tr_TR_sunflower_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_TR_Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
+    <t xml:space="preserve">tr_Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
   </si>
   <si>
     <t xml:space="preserve">tr_TR_sunflower_№_2</t>
@@ -1183,7 +1183,7 @@
     <t xml:space="preserve">desc_tr_TR_soybean_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_TR_Please contact:</t>
+    <t xml:space="preserve">tr_Please contact:</t>
   </si>
   <si>
     <t xml:space="preserve">tr_TR_soybean_№_2</t>
@@ -1192,34 +1192,34 @@
     <t xml:space="preserve">desc_tr_TR_soybean_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">tr_TR_About membership in professional associations and business events:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_TR_About organizational issues and job:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_TR_About strategic partnership:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_TR_products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_TR_company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_TR_founder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_TR_make exclusive order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_TR_partnership program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_TR_charity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tr_TR_contacts</t>
+    <t xml:space="preserve">tr_About membership in professional associations and business events:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_About organizational issues and job:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_About strategic partnership:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_founder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_make exclusive order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_partnership program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_charity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tr_contacts</t>
   </si>
   <si>
     <t xml:space="preserve">it_IT_ancillary_name</t>
@@ -1231,7 +1231,7 @@
     <t xml:space="preserve">desc_it_IT_other</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT_"AgroMax" - is trading company working at market of health food (wholesales segment).</t>
+    <t xml:space="preserve">it_"AgroMax" - is trading company working at market of health food (wholesales segment).</t>
   </si>
   <si>
     <t xml:space="preserve">it_IT_sorghum</t>
@@ -1243,7 +1243,7 @@
     <t xml:space="preserve">desc_it_IT_sorghum_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
+    <t xml:space="preserve">it_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
   </si>
   <si>
     <t xml:space="preserve">it_IT_beans</t>
@@ -1255,7 +1255,7 @@
     <t xml:space="preserve">desc_it_IT_sorghum_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
+    <t xml:space="preserve">it_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
   </si>
   <si>
     <t xml:space="preserve">it_IT_mustard</t>
@@ -1312,7 +1312,7 @@
     <t xml:space="preserve">desc_it_IT_chickpea_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT_Hello friends, My name is Maksym Ratner, below is my story…</t>
+    <t xml:space="preserve">it_Hello friends, My name is Maksym Ratner, below is my story…</t>
   </si>
   <si>
     <t xml:space="preserve">it_IT_lupine</t>
@@ -1324,7 +1324,7 @@
     <t xml:space="preserve">desc_it_IT_linen(grain)_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
+    <t xml:space="preserve">it_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
   </si>
   <si>
     <t xml:space="preserve">it_IT_spelt</t>
@@ -1336,7 +1336,7 @@
     <t xml:space="preserve">desc_it_IT_linen(grain)_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
+    <t xml:space="preserve">it_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
   </si>
   <si>
     <t xml:space="preserve">it_IT_safflower</t>
@@ -1348,7 +1348,7 @@
     <t xml:space="preserve">desc_it_IT_red &amp; green lentils_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
+    <t xml:space="preserve">it_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
   </si>
   <si>
     <t xml:space="preserve">it_IT_wheat common</t>
@@ -1417,7 +1417,7 @@
     <t xml:space="preserve">desc_it_IT_lupine_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT_Our partnership program</t>
+    <t xml:space="preserve">it_Our partnership program</t>
   </si>
   <si>
     <t xml:space="preserve">it_IT_soybean</t>
@@ -1429,7 +1429,7 @@
     <t xml:space="preserve">desc_it_IT_spelt_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
+    <t xml:space="preserve">it_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
   </si>
   <si>
     <t xml:space="preserve">it_IT_spelt_№_2</t>
@@ -1438,7 +1438,7 @@
     <t xml:space="preserve">desc_it_IT_spelt_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
+    <t xml:space="preserve">it_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
   </si>
   <si>
     <t xml:space="preserve">it_IT_safflower_№_1</t>
@@ -1447,7 +1447,7 @@
     <t xml:space="preserve">desc_it_IT_safflower_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT_Please contact about our partnership program:</t>
+    <t xml:space="preserve">it_Please contact about our partnership program:</t>
   </si>
   <si>
     <t xml:space="preserve">it_IT_safflower_№_2</t>
@@ -1486,7 +1486,7 @@
     <t xml:space="preserve">desc_it_IT_potato_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT_"AgroMax trades with products for health food industry and does the support to health..".</t>
+    <t xml:space="preserve">it_"AgroMax trades with products for health food industry and does the support to health..".</t>
   </si>
   <si>
     <t xml:space="preserve">it_IT_potato_№_2</t>
@@ -1495,7 +1495,7 @@
     <t xml:space="preserve">desc_it_IT_potato_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT_Lorem ipsum dolor sit amet123</t>
+    <t xml:space="preserve">it_Lorem ipsum dolor sit amet123</t>
   </si>
   <si>
     <t xml:space="preserve">it_IT_rapeseed_№_1</t>
@@ -1504,7 +1504,7 @@
     <t xml:space="preserve">desc_it_IT_rapeseed_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT_123Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
+    <t xml:space="preserve">it_123Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
   </si>
   <si>
     <t xml:space="preserve">it_IT_rapeseed_№_2</t>
@@ -1513,7 +1513,7 @@
     <t xml:space="preserve">desc_it_IT_rapeseed_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT_Lorem ipsum dolor sit amet</t>
+    <t xml:space="preserve">it_Lorem ipsum dolor sit amet</t>
   </si>
   <si>
     <t xml:space="preserve">it_IT_sunflower_№_1</t>
@@ -1522,7 +1522,7 @@
     <t xml:space="preserve">desc_it_IT_sunflower_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT_Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
+    <t xml:space="preserve">it_Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
   </si>
   <si>
     <t xml:space="preserve">it_IT_sunflower_№_2</t>
@@ -1561,7 +1561,7 @@
     <t xml:space="preserve">desc_it_IT_soybean_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT_Please contact:</t>
+    <t xml:space="preserve">it_Please contact:</t>
   </si>
   <si>
     <t xml:space="preserve">it_IT_soybean_№_2</t>
@@ -1570,34 +1570,34 @@
     <t xml:space="preserve">desc_it_IT_soybean_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">it_IT_About membership in professional associations and business events:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_IT_About organizational issues and job:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_IT_About strategic partnership:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_IT_products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_IT_company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_IT_founder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_IT_make exclusive order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_IT_partnership program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_IT_charity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it_IT_contacts</t>
+    <t xml:space="preserve">it_About membership in professional associations and business events:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it_About organizational issues and job:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it_About strategic partnership:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it_products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it_company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it_founder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it_make exclusive order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it_partnership program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it_charity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it_contacts</t>
   </si>
   <si>
     <t xml:space="preserve">fr_FR_ancillary_name</t>
@@ -1609,7 +1609,7 @@
     <t xml:space="preserve">desc_fr_FR_other</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_FR_"AgroMax" - is trading company working at market of health food (wholesales segment).</t>
+    <t xml:space="preserve">fr_"AgroMax" - is trading company working at market of health food (wholesales segment).</t>
   </si>
   <si>
     <t xml:space="preserve">fr_FR_sorghum</t>
@@ -1621,7 +1621,7 @@
     <t xml:space="preserve">desc_fr_FR_sorghum_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_FR_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
+    <t xml:space="preserve">fr_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
   </si>
   <si>
     <t xml:space="preserve">fr_FR_beans</t>
@@ -1633,7 +1633,7 @@
     <t xml:space="preserve">desc_fr_FR_sorghum_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_FR_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
+    <t xml:space="preserve">fr_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
   </si>
   <si>
     <t xml:space="preserve">fr_FR_mustard</t>
@@ -1690,7 +1690,7 @@
     <t xml:space="preserve">desc_fr_FR_chickpea_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_FR_Hello friends, My name is Maksym Ratner, below is my story…</t>
+    <t xml:space="preserve">fr_Hello friends, My name is Maksym Ratner, below is my story…</t>
   </si>
   <si>
     <t xml:space="preserve">fr_FR_lupine</t>
@@ -1702,7 +1702,7 @@
     <t xml:space="preserve">desc_fr_FR_linen(grain)_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_FR_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
+    <t xml:space="preserve">fr_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
   </si>
   <si>
     <t xml:space="preserve">fr_FR_spelt</t>
@@ -1714,7 +1714,7 @@
     <t xml:space="preserve">desc_fr_FR_linen(grain)_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_FR_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
+    <t xml:space="preserve">fr_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
   </si>
   <si>
     <t xml:space="preserve">fr_FR_safflower</t>
@@ -1726,7 +1726,7 @@
     <t xml:space="preserve">desc_fr_FR_red &amp; green lentils_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_FR_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
+    <t xml:space="preserve">fr_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
   </si>
   <si>
     <t xml:space="preserve">fr_FR_wheat common</t>
@@ -1795,7 +1795,7 @@
     <t xml:space="preserve">desc_fr_FR_lupine_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_FR_Our partnership program</t>
+    <t xml:space="preserve">fr_Our partnership program</t>
   </si>
   <si>
     <t xml:space="preserve">fr_FR_soybean</t>
@@ -1807,7 +1807,7 @@
     <t xml:space="preserve">desc_fr_FR_spelt_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_FR_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
+    <t xml:space="preserve">fr_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
   </si>
   <si>
     <t xml:space="preserve">fr_FR_spelt_№_2</t>
@@ -1816,7 +1816,7 @@
     <t xml:space="preserve">desc_fr_FR_spelt_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_FR_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
+    <t xml:space="preserve">fr_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
   </si>
   <si>
     <t xml:space="preserve">fr_FR_safflower_№_1</t>
@@ -1825,7 +1825,7 @@
     <t xml:space="preserve">desc_fr_FR_safflower_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_FR_Please contact about our partnership program:</t>
+    <t xml:space="preserve">fr_Please contact about our partnership program:</t>
   </si>
   <si>
     <t xml:space="preserve">fr_FR_safflower_№_2</t>
@@ -1864,7 +1864,7 @@
     <t xml:space="preserve">desc_fr_FR_potato_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_FR_"AgroMax trades with products for health food industry and does the support to health..".</t>
+    <t xml:space="preserve">fr_"AgroMax trades with products for health food industry and does the support to health..".</t>
   </si>
   <si>
     <t xml:space="preserve">fr_FR_potato_№_2</t>
@@ -1873,7 +1873,7 @@
     <t xml:space="preserve">desc_fr_FR_potato_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_FR_Lorem ipsum dolor sit amet123</t>
+    <t xml:space="preserve">fr_Lorem ipsum dolor sit amet123</t>
   </si>
   <si>
     <t xml:space="preserve">fr_FR_rapeseed_№_1</t>
@@ -1882,7 +1882,7 @@
     <t xml:space="preserve">desc_fr_FR_rapeseed_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_FR_123Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
+    <t xml:space="preserve">fr_123Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
   </si>
   <si>
     <t xml:space="preserve">fr_FR_rapeseed_№_2</t>
@@ -1891,7 +1891,7 @@
     <t xml:space="preserve">desc_fr_FR_rapeseed_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_FR_Lorem ipsum dolor sit amet</t>
+    <t xml:space="preserve">fr_Lorem ipsum dolor sit amet</t>
   </si>
   <si>
     <t xml:space="preserve">fr_FR_sunflower_№_1</t>
@@ -1900,7 +1900,7 @@
     <t xml:space="preserve">desc_fr_FR_sunflower_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_FR_Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
+    <t xml:space="preserve">fr_Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
   </si>
   <si>
     <t xml:space="preserve">fr_FR_sunflower_№_2</t>
@@ -1939,7 +1939,7 @@
     <t xml:space="preserve">desc_fr_FR_soybean_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_FR_Please contact:</t>
+    <t xml:space="preserve">fr_Please contact:</t>
   </si>
   <si>
     <t xml:space="preserve">fr_FR_soybean_№_2</t>
@@ -1948,34 +1948,34 @@
     <t xml:space="preserve">desc_fr_FR_soybean_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">fr_FR_About membership in professional associations and business events:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_FR_About organizational issues and job:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_FR_About strategic partnership:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_FR_products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_FR_company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_FR_founder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_FR_make exclusive order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_FR_partnership program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_FR_charity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr_FR_contacts</t>
+    <t xml:space="preserve">fr_About membership in professional associations and business events:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fr_About organizational issues and job:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fr_About strategic partnership:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fr_products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fr_company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fr_founder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fr_make exclusive order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fr_partnership program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fr_charity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fr_contacts</t>
   </si>
   <si>
     <t xml:space="preserve">ar_TN_ancillary_name</t>
@@ -1987,7 +1987,7 @@
     <t xml:space="preserve">desc_ar_TN_other</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_TN_"AgroMax" - is trading company working at market of health food (wholesales segment).</t>
+    <t xml:space="preserve">ar_"AgroMax" - is trading company working at market of health food (wholesales segment).</t>
   </si>
   <si>
     <t xml:space="preserve">ar_TN_sorghum</t>
@@ -1999,7 +1999,7 @@
     <t xml:space="preserve">desc_ar_TN_sorghum_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_TN_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
+    <t xml:space="preserve">ar_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
   </si>
   <si>
     <t xml:space="preserve">ar_TN_beans</t>
@@ -2011,7 +2011,7 @@
     <t xml:space="preserve">desc_ar_TN_sorghum_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_TN_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
+    <t xml:space="preserve">ar_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
   </si>
   <si>
     <t xml:space="preserve">ar_TN_mustard</t>
@@ -2068,7 +2068,7 @@
     <t xml:space="preserve">desc_ar_TN_chickpea_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_TN_Hello friends, My name is Maksym Ratner, below is my story…</t>
+    <t xml:space="preserve">ar_Hello friends, My name is Maksym Ratner, below is my story…</t>
   </si>
   <si>
     <t xml:space="preserve">ar_TN_lupine</t>
@@ -2080,7 +2080,7 @@
     <t xml:space="preserve">desc_ar_TN_linen(grain)_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_TN_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
+    <t xml:space="preserve">ar_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
   </si>
   <si>
     <t xml:space="preserve">ar_TN_spelt</t>
@@ -2092,7 +2092,7 @@
     <t xml:space="preserve">desc_ar_TN_linen(grain)_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_TN_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
+    <t xml:space="preserve">ar_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
   </si>
   <si>
     <t xml:space="preserve">ar_TN_safflower</t>
@@ -2104,7 +2104,7 @@
     <t xml:space="preserve">desc_ar_TN_red &amp; green lentils_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_TN_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
+    <t xml:space="preserve">ar_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
   </si>
   <si>
     <t xml:space="preserve">ar_TN_wheat common</t>
@@ -2173,7 +2173,7 @@
     <t xml:space="preserve">desc_ar_TN_lupine_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_TN_Our partnership program</t>
+    <t xml:space="preserve">ar_Our partnership program</t>
   </si>
   <si>
     <t xml:space="preserve">ar_TN_soybean</t>
@@ -2185,7 +2185,7 @@
     <t xml:space="preserve">desc_ar_TN_spelt_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_TN_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
+    <t xml:space="preserve">ar_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
   </si>
   <si>
     <t xml:space="preserve">ar_TN_spelt_№_2</t>
@@ -2194,7 +2194,7 @@
     <t xml:space="preserve">desc_ar_TN_spelt_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_TN_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
+    <t xml:space="preserve">ar_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
   </si>
   <si>
     <t xml:space="preserve">ar_TN_safflower_№_1</t>
@@ -2203,7 +2203,7 @@
     <t xml:space="preserve">desc_ar_TN_safflower_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_TN_Please contact about our partnership program:</t>
+    <t xml:space="preserve">ar_Please contact about our partnership program:</t>
   </si>
   <si>
     <t xml:space="preserve">ar_TN_safflower_№_2</t>
@@ -2242,7 +2242,7 @@
     <t xml:space="preserve">desc_ar_TN_potato_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_TN_"AgroMax trades with products for health food industry and does the support to health..".</t>
+    <t xml:space="preserve">ar_"AgroMax trades with products for health food industry and does the support to health..".</t>
   </si>
   <si>
     <t xml:space="preserve">ar_TN_potato_№_2</t>
@@ -2251,7 +2251,7 @@
     <t xml:space="preserve">desc_ar_TN_potato_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_TN_Lorem ipsum dolor sit amet123</t>
+    <t xml:space="preserve">ar_Lorem ipsum dolor sit amet123</t>
   </si>
   <si>
     <t xml:space="preserve">ar_TN_rapeseed_№_1</t>
@@ -2260,7 +2260,7 @@
     <t xml:space="preserve">desc_ar_TN_rapeseed_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_TN_123Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
+    <t xml:space="preserve">ar_123Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
   </si>
   <si>
     <t xml:space="preserve">ar_TN_rapeseed_№_2</t>
@@ -2269,7 +2269,7 @@
     <t xml:space="preserve">desc_ar_TN_rapeseed_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_TN_Lorem ipsum dolor sit amet</t>
+    <t xml:space="preserve">ar_Lorem ipsum dolor sit amet</t>
   </si>
   <si>
     <t xml:space="preserve">ar_TN_sunflower_№_1</t>
@@ -2278,7 +2278,7 @@
     <t xml:space="preserve">desc_ar_TN_sunflower_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_TN_Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
+    <t xml:space="preserve">ar_Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
   </si>
   <si>
     <t xml:space="preserve">ar_TN_sunflower_№_2</t>
@@ -2317,7 +2317,7 @@
     <t xml:space="preserve">desc_ar_TN_soybean_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_TN_Please contact:</t>
+    <t xml:space="preserve">ar_Please contact:</t>
   </si>
   <si>
     <t xml:space="preserve">ar_TN_soybean_№_2</t>
@@ -2326,34 +2326,34 @@
     <t xml:space="preserve">desc_ar_TN_soybean_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">ar_TN_About membership in professional associations and business events:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_TN_About organizational issues and job:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_TN_About strategic partnership:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_TN_products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_TN_company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_TN_founder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_TN_make exclusive order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_TN_partnership program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_TN_charity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar_TN_contacts</t>
+    <t xml:space="preserve">ar_About membership in professional associations and business events:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar_About organizational issues and job:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar_About strategic partnership:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar_products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar_company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar_founder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar_make exclusive order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar_partnership program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar_charity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar_contacts</t>
   </si>
   <si>
     <t xml:space="preserve">es_ES_ancillary_name</t>
@@ -2365,7 +2365,7 @@
     <t xml:space="preserve">desc_es_ES_other</t>
   </si>
   <si>
-    <t xml:space="preserve">es_ES_"AgroMax" - is trading company working at market of health food (wholesales segment).</t>
+    <t xml:space="preserve">es_"AgroMax" - is trading company working at market of health food (wholesales segment).</t>
   </si>
   <si>
     <t xml:space="preserve">es_ES_sorghum</t>
@@ -2377,7 +2377,7 @@
     <t xml:space="preserve">desc_es_ES_sorghum_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">es_ES_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
+    <t xml:space="preserve">es_Our company headquartered in Sofia ( Bulgaria) and has its operational offices in Kharkov( Ukraine) and in Romania.</t>
   </si>
   <si>
     <t xml:space="preserve">es_ES_beans</t>
@@ -2389,7 +2389,7 @@
     <t xml:space="preserve">desc_es_ES_sorghum_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">es_ES_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
+    <t xml:space="preserve">es_Our market mission - to facilitate the trade with agricultures for health food industry from  Black Sea countries' farms.</t>
   </si>
   <si>
     <t xml:space="preserve">es_ES_mustard</t>
@@ -2446,7 +2446,7 @@
     <t xml:space="preserve">desc_es_ES_chickpea_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">es_ES_Hello friends, My name is Maksym Ratner, below is my story…</t>
+    <t xml:space="preserve">es_Hello friends, My name is Maksym Ratner, below is my story…</t>
   </si>
   <si>
     <t xml:space="preserve">es_ES_lupine</t>
@@ -2458,7 +2458,7 @@
     <t xml:space="preserve">desc_es_ES_linen(grain)_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">es_ES_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
+    <t xml:space="preserve">es_I was 16 years teenager just and I have got the job in trading company of my Dad. It was not journey in office just it was hard and intense job. Though my Dad offered me his financial assist for MBA degree , I have declined his offer. MBA degree was not interesting for me but real business was much interesting.</t>
   </si>
   <si>
     <t xml:space="preserve">es_ES_spelt</t>
@@ -2470,7 +2470,7 @@
     <t xml:space="preserve">desc_es_ES_linen(grain)_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">es_ES_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
+    <t xml:space="preserve">es_My Dad brought to me his business skills and his craft and helped me to create my own.Sunflower market, where our company did focus, grew up  intense but our business with Dad grew up more intense just.More and more bigger contracts , more and more earns but it was not what I looked for.</t>
   </si>
   <si>
     <t xml:space="preserve">es_ES_safflower</t>
@@ -2482,7 +2482,7 @@
     <t xml:space="preserve">desc_es_ES_red &amp; green lentils_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">es_ES_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
+    <t xml:space="preserve">es_The super intense job  has impended the relationships with my family.I was losing normal and nice relationship with my family. My healthy was drained deeply. I have changed my food , I have made focus at healthy food and intense trainings in gym.Thanks to it I could return the balance between job and family. My problems with my healthy were my reinvention in business.I just looked around myself and explored - a lot of managers have similar problems.I've took decision to establish company to facilitate health food &amp; agro trading, so, I've created "AgroMax".</t>
   </si>
   <si>
     <t xml:space="preserve">es_ES_wheat common</t>
@@ -2551,7 +2551,7 @@
     <t xml:space="preserve">desc_es_ES_lupine_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">es_ES_Our partnership program</t>
+    <t xml:space="preserve">es_Our partnership program</t>
   </si>
   <si>
     <t xml:space="preserve">es_ES_soybean</t>
@@ -2563,7 +2563,7 @@
     <t xml:space="preserve">desc_es_ES_spelt_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">es_ES_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
+    <t xml:space="preserve">es_Thanks to market analysis, digital marketing and well organized event management AgroMax can facilitate its partner farms trade with higher margin.</t>
   </si>
   <si>
     <t xml:space="preserve">es_ES_spelt_№_2</t>
@@ -2572,7 +2572,7 @@
     <t xml:space="preserve">desc_es_ES_spelt_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">es_ES_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
+    <t xml:space="preserve">es_Thanks to well partnership with the farms from Black Sea region AgroMax can provide with more cheaper productd to its partner wholesale buyers.</t>
   </si>
   <si>
     <t xml:space="preserve">es_ES_safflower_№_1</t>
@@ -2581,7 +2581,7 @@
     <t xml:space="preserve">desc_es_ES_safflower_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">es_ES_Please contact about our partnership program:</t>
+    <t xml:space="preserve">es_Please contact about our partnership program:</t>
   </si>
   <si>
     <t xml:space="preserve">es_ES_safflower_№_2</t>
@@ -2620,7 +2620,7 @@
     <t xml:space="preserve">desc_es_ES_potato_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">es_ES_"AgroMax trades with products for health food industry and does the support to health..".</t>
+    <t xml:space="preserve">es_"AgroMax trades with products for health food industry and does the support to health..".</t>
   </si>
   <si>
     <t xml:space="preserve">es_ES_potato_№_2</t>
@@ -2629,7 +2629,7 @@
     <t xml:space="preserve">desc_es_ES_potato_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">es_ES_Lorem ipsum dolor sit amet123</t>
+    <t xml:space="preserve">es_Lorem ipsum dolor sit amet123</t>
   </si>
   <si>
     <t xml:space="preserve">es_ES_rapeseed_№_1</t>
@@ -2638,7 +2638,7 @@
     <t xml:space="preserve">desc_es_ES_rapeseed_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">es_ES_123Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
+    <t xml:space="preserve">es_123Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
   </si>
   <si>
     <t xml:space="preserve">es_ES_rapeseed_№_2</t>
@@ -2647,7 +2647,7 @@
     <t xml:space="preserve">desc_es_ES_rapeseed_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">es_ES_Lorem ipsum dolor sit amet</t>
+    <t xml:space="preserve">es_Lorem ipsum dolor sit amet</t>
   </si>
   <si>
     <t xml:space="preserve">es_ES_sunflower_№_1</t>
@@ -2656,7 +2656,7 @@
     <t xml:space="preserve">desc_es_ES_sunflower_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">es_ES_Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
+    <t xml:space="preserve">es_Lorem ipsum dolor sit amet, consectetuer adipiscing elit. Aenean commodo ligula eget dolor. Aenean massa. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Donec quam felis, ultricies nec, pellentesque eu, pretium quis, sem. Nulla consequat massa quis enim. Donec pede justo, fringilla vel, aliquet nec, vulputate eget, arcu. In enim justo, rhoncus ut, imperdiet a, venenatis vitae, justo. Nullam dictum felis eu pede mollis pretium. Integer tincidunt. Cras dapibus. Vivamus elementum semper nisi. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue. Aenean vulputate eleifend tellus. Aenean leo ligula, porttitor eu, consequat vitae, eleifend ac, enim. Aliquam lorem ante, dapibus in, viverra quis, feugiat a, tellus. Phasellus viverra nulla ut metus varius laoreet. Quisque rutrum. Aenean imperdiet. Etiam ultricies nisi vel augue.</t>
   </si>
   <si>
     <t xml:space="preserve">es_ES_sunflower_№_2</t>
@@ -2695,7 +2695,7 @@
     <t xml:space="preserve">desc_es_ES_soybean_№_1</t>
   </si>
   <si>
-    <t xml:space="preserve">es_ES_Please contact:</t>
+    <t xml:space="preserve">es_Please contact:</t>
   </si>
   <si>
     <t xml:space="preserve">es_ES_soybean_№_2</t>
@@ -2704,34 +2704,34 @@
     <t xml:space="preserve">desc_es_ES_soybean_№_2</t>
   </si>
   <si>
-    <t xml:space="preserve">es_ES_About membership in professional associations and business events:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_ES_About organizational issues and job:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_ES_About strategic partnership:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_ES_products</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_ES_company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_ES_founder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_ES_make exclusive order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_ES_partnership program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_ES_charity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_ES_contacts</t>
+    <t xml:space="preserve">es_About membership in professional associations and business events:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es_About organizational issues and job:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es_About strategic partnership:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es_products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es_company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es_founder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es_make exclusive order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es_partnership program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es_charity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es_contacts</t>
   </si>
 </sst>
 </file>
@@ -2967,7 +2967,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="3.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.73"/>
@@ -3792,7 +3792,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="3.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.73"/>
@@ -4617,7 +4617,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="3.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.73"/>
@@ -5439,7 +5439,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="3.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.73"/>
@@ -6261,7 +6261,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="3.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.73"/>
@@ -7083,7 +7083,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="3.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.73"/>
@@ -7905,7 +7905,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="3.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.73"/>

--- a/public/translate.xlsx
+++ b/public/translate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="en_GB" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="908">
   <si>
     <t xml:space="preserve">category_id</t>
   </si>
@@ -2338,19 +2338,37 @@
     <t xml:space="preserve">ar_products</t>
   </si>
   <si>
+    <t xml:space="preserve">المنتجات الخاصة بنا</t>
+  </si>
+  <si>
     <t xml:space="preserve">ar_company</t>
   </si>
   <si>
+    <t xml:space="preserve">الشركة الخاصة بنا</t>
+  </si>
+  <si>
     <t xml:space="preserve">ar_founder</t>
   </si>
   <si>
+    <t xml:space="preserve">المؤسس</t>
+  </si>
+  <si>
     <t xml:space="preserve">ar_make exclusive order</t>
   </si>
   <si>
+    <t xml:space="preserve">عمل طلبية حصرية</t>
+  </si>
+  <si>
     <t xml:space="preserve">ar_partnership program</t>
   </si>
   <si>
+    <t xml:space="preserve">برنامج الشراكة الخاص بنا</t>
+  </si>
+  <si>
     <t xml:space="preserve">ar_charity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">العروض الخاصة بنا</t>
   </si>
   <si>
     <t xml:space="preserve">ar_contacts</t>
@@ -2959,7 +2977,7 @@
   </sheetPr>
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7073,10 +7091,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I54" activeCellId="0" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7848,35 +7866,56 @@
       <c r="M48" s="7" t="s">
         <v>769</v>
       </c>
+      <c r="O48" s="7" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M49" s="8" t="s">
-        <v>770</v>
+        <v>771</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M50" s="7" t="s">
-        <v>771</v>
+        <v>773</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M51" s="8" t="s">
-        <v>772</v>
+        <v>775</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M52" s="7" t="s">
-        <v>773</v>
+        <v>777</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M53" s="8" t="s">
-        <v>774</v>
+        <v>779</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M54" s="7" t="s">
-        <v>775</v>
+        <v>781</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -7943,22 +7982,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="G2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7966,22 +8005,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7989,22 +8028,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>3</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8012,16 +8051,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8029,16 +8068,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8046,16 +8085,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8063,16 +8102,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>7</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8080,16 +8119,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>37</v>
@@ -8103,22 +8142,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>9</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8126,22 +8165,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8149,22 +8188,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>11</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8172,22 +8211,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8195,22 +8234,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>13</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>58</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8218,16 +8257,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8235,16 +8274,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>15</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8252,16 +8291,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8269,16 +8308,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>17</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8286,16 +8325,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>75</v>
@@ -8309,22 +8348,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>19</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>79</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8332,22 +8371,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>20</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8357,16 +8396,16 @@
         <v>21</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8375,16 +8414,16 @@
         <v>22</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8394,10 +8433,10 @@
         <v>23</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8406,10 +8445,10 @@
         <v>24</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8419,10 +8458,10 @@
         <v>25</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8431,10 +8470,10 @@
         <v>26</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8444,10 +8483,10 @@
         <v>27</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>102</v>
@@ -8462,16 +8501,16 @@
         <v>28</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8481,16 +8520,16 @@
         <v>29</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>79</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8499,16 +8538,16 @@
         <v>30</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8518,16 +8557,16 @@
         <v>31</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8536,16 +8575,16 @@
         <v>32</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8555,10 +8594,10 @@
         <v>33</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8567,10 +8606,10 @@
         <v>34</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8580,10 +8619,10 @@
         <v>35</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8592,10 +8631,10 @@
         <v>36</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8605,10 +8644,10 @@
         <v>37</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>129</v>
@@ -8623,16 +8662,16 @@
         <v>38</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8642,16 +8681,16 @@
         <v>39</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8659,7 +8698,7 @@
         <v>15</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8667,7 +8706,7 @@
         <v>20</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8677,37 +8716,37 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M48" s="7" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M49" s="8" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M50" s="7" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M51" s="8" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M52" s="7" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M53" s="8" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M54" s="7" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
     </row>
   </sheetData>
